--- a/data/financial_statements/sofp/AJG.xlsx
+++ b/data/financial_statements/sofp/AJG.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,144 +598,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>5277000000</v>
+        <v>5276800000</v>
       </c>
       <c r="C2">
-        <v>4790000000</v>
+        <v>4789700000</v>
       </c>
       <c r="D2">
-        <v>4639000000</v>
+        <v>4638700000</v>
       </c>
       <c r="E2">
-        <v>4466000000</v>
+        <v>4466300000</v>
       </c>
       <c r="F2">
-        <v>6012000000</v>
+        <v>6012300000</v>
       </c>
       <c r="G2">
         <v>6375000000</v>
@@ -730,8 +841,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>16956000000</v>
@@ -852,8 +963,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1563800000</v>
@@ -974,8 +1085,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>23796600000</v>
@@ -1096,23 +1207,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>909000000</v>
+        <v>561400000</v>
       </c>
       <c r="C6">
-        <v>933000000</v>
+        <v>569600000</v>
       </c>
       <c r="D6">
-        <v>887000000</v>
+        <v>505100000</v>
       </c>
       <c r="E6">
-        <v>859000000</v>
+        <v>500800000</v>
       </c>
       <c r="F6">
-        <v>785000000</v>
+        <v>454500000</v>
       </c>
       <c r="G6">
         <v>454900000</v>
@@ -1218,23 +1329,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>11890000000</v>
+        <v>11889600000</v>
       </c>
       <c r="C7">
-        <v>12227000000</v>
+        <v>12227300000</v>
       </c>
       <c r="D7">
-        <v>12605000000</v>
+        <v>12605300000</v>
       </c>
       <c r="E7">
-        <v>12620000000</v>
+        <v>12620200000</v>
       </c>
       <c r="F7">
-        <v>8967000000</v>
+        <v>8966500000</v>
       </c>
       <c r="G7">
         <v>9077600000</v>
@@ -1340,8 +1451,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>1138000000</v>
@@ -1462,23 +1573,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>934000000</v>
+        <v>934400000</v>
       </c>
       <c r="C9">
-        <v>949000000</v>
+        <v>949100000</v>
       </c>
       <c r="D9">
-        <v>980000000</v>
+        <v>980200000</v>
       </c>
       <c r="E9">
-        <v>354000000</v>
+        <v>966500000</v>
       </c>
       <c r="F9">
-        <v>841000000</v>
+        <v>854800000</v>
       </c>
       <c r="G9">
         <v>860800000</v>
@@ -1584,8 +1695,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>14871200000</v>
@@ -1706,23 +1817,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>38668000000</v>
+        <v>38667800000</v>
       </c>
       <c r="C11">
-        <v>39990000000</v>
+        <v>39990400000</v>
       </c>
       <c r="D11">
-        <v>43162000000</v>
+        <v>43161500000</v>
       </c>
       <c r="E11">
         <v>33345000000</v>
       </c>
       <c r="F11">
-        <v>26916000000</v>
+        <v>26915800000</v>
       </c>
       <c r="G11">
         <v>27817200000</v>
@@ -1828,8 +1939,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>685400000</v>
@@ -1947,8 +2058,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>19273400000</v>
@@ -2069,8 +2180,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>1972800000</v>
@@ -2191,8 +2302,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>685000000</v>
@@ -2232,8 +2343,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>525000000</v>
@@ -2297,8 +2408,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="V17">
         <v>61800000</v>
@@ -2359,8 +2470,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>22456600000</v>
@@ -2481,23 +2592,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>5864000000</v>
+        <v>5562200000</v>
       </c>
       <c r="C19">
-        <v>5875000000</v>
+        <v>5561500000</v>
       </c>
       <c r="D19">
-        <v>6094000000</v>
+        <v>5760900000</v>
       </c>
       <c r="E19">
-        <v>6120000000</v>
+        <v>5810200000</v>
       </c>
       <c r="F19">
-        <v>5354000000</v>
+        <v>5072400000</v>
       </c>
       <c r="G19">
         <v>5712200000</v>
@@ -2603,23 +2714,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>588000000</v>
+        <v>62800000</v>
       </c>
       <c r="C20">
-        <v>622000000</v>
+        <v>62900000</v>
       </c>
       <c r="D20">
-        <v>642000000</v>
+        <v>64500000</v>
       </c>
       <c r="E20">
-        <v>580000000</v>
+        <v>58700000</v>
       </c>
       <c r="F20">
-        <v>588000000</v>
+        <v>61100000</v>
       </c>
       <c r="G20">
         <v>62000000</v>
@@ -2668,8 +2779,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>-1138000000</v>
@@ -2709,23 +2820,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>22901000000</v>
+        <v>1655200000</v>
       </c>
       <c r="C22">
-        <v>23744000000</v>
+        <v>1686200000</v>
       </c>
       <c r="D22">
-        <v>26959000000</v>
+        <v>1814900000</v>
       </c>
       <c r="E22">
-        <v>17530000000</v>
+        <v>1871700000</v>
       </c>
       <c r="F22">
-        <v>12070000000</v>
+        <v>1371000000</v>
       </c>
       <c r="G22">
         <v>1365100000</v>
@@ -2831,8 +2942,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>7582100000</v>
@@ -2953,23 +3064,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>30039000000</v>
+        <v>30038700000</v>
       </c>
       <c r="C24">
-        <v>31129000000</v>
+        <v>31128600000</v>
       </c>
       <c r="D24">
-        <v>34118000000</v>
+        <v>34118400000</v>
       </c>
       <c r="E24">
-        <v>24785000000</v>
+        <v>24784900000</v>
       </c>
       <c r="F24">
-        <v>18446000000</v>
+        <v>18445700000</v>
       </c>
       <c r="G24">
         <v>19463200000</v>
@@ -3075,8 +3186,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>6305500000</v>
@@ -3197,23 +3308,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>211000000</v>
+        <v>210800000</v>
       </c>
       <c r="C26">
-        <v>210000000</v>
+        <v>210300000</v>
       </c>
       <c r="D26">
-        <v>210000000</v>
+        <v>210100000</v>
       </c>
       <c r="E26">
-        <v>209000000</v>
+        <v>208500000</v>
       </c>
       <c r="F26">
-        <v>207000000</v>
+        <v>207300000</v>
       </c>
       <c r="G26">
         <v>206800000</v>
@@ -3319,23 +3430,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>3536000000</v>
+        <v>3536200000</v>
       </c>
       <c r="C27">
-        <v>3389000000</v>
+        <v>3388700000</v>
       </c>
       <c r="D27">
         <v>3213000000</v>
       </c>
       <c r="E27">
-        <v>2882000000</v>
+        <v>2882300000</v>
       </c>
       <c r="F27">
-        <v>2874000000</v>
+        <v>2873800000</v>
       </c>
       <c r="G27">
         <v>2749100000</v>
@@ -3441,23 +3552,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>8574000000</v>
+        <v>8629100000</v>
       </c>
       <c r="C28">
-        <v>8809000000</v>
+        <v>8861800000</v>
       </c>
       <c r="D28">
-        <v>8989000000</v>
+        <v>9043100000</v>
       </c>
       <c r="E28">
-        <v>8508000000</v>
+        <v>8560101000</v>
       </c>
       <c r="F28">
-        <v>8420000000</v>
+        <v>8470100000</v>
       </c>
       <c r="G28">
         <v>8353999000</v>
@@ -3563,23 +3674,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>8574000000</v>
+        <v>8629100000</v>
       </c>
       <c r="C29">
-        <v>8809000000</v>
+        <v>8861800000</v>
       </c>
       <c r="D29">
-        <v>8989000000</v>
+        <v>9043100000</v>
       </c>
       <c r="E29">
-        <v>8508000000</v>
+        <v>8560100000</v>
       </c>
       <c r="F29">
-        <v>8420000000</v>
+        <v>8470100000</v>
       </c>
       <c r="G29">
         <v>8354000000</v>
@@ -3685,8 +3796,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>38667800000</v>
@@ -3807,8 +3918,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>210800000</v>
@@ -3929,8 +4040,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>-3260498000</v>
@@ -4051,23 +4162,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>1272000000</v>
+        <v>970400000</v>
       </c>
       <c r="C33">
-        <v>1972000000</v>
+        <v>1658800000</v>
       </c>
       <c r="D33">
-        <v>1878000000</v>
+        <v>1545200000</v>
       </c>
       <c r="E33">
-        <v>2210000000</v>
+        <v>1899900000</v>
       </c>
       <c r="F33">
-        <v>-224000000</v>
+        <v>-505900000</v>
       </c>
       <c r="G33">
         <v>-296800000</v>
@@ -4173,23 +4284,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>6549000000</v>
+        <v>6247200000</v>
       </c>
       <c r="C34">
-        <v>6762000000</v>
+        <v>6448500000</v>
       </c>
       <c r="D34">
-        <v>6517000000</v>
+        <v>6183900000</v>
       </c>
       <c r="E34">
-        <v>6676000000</v>
+        <v>6366200000</v>
       </c>
       <c r="F34">
-        <v>5788000000</v>
+        <v>5506400000</v>
       </c>
       <c r="G34">
         <v>6078200000</v>
